--- a/data/long_razon/P27_N-Urba-long_razon.xlsx
+++ b/data/long_razon/P27_N-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +787,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1212,14 +913,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P27_N-Urba-long_razon.xlsx
+++ b/data/long_razon/P27_N-Urba-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.08401754957947449</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.6360249508595496</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.2160886843355296</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.4193606482305847</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.2688377623262051</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.4249592059187249</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.40539544237109</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.1435154148499066</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.184803357743725</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.5130047345014067</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.1767385798551322</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.2826551835712795</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.1618482410771691</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.2786156194493289</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.1171260819549574</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.57190992270791</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.02490533388126537</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.1952749998972356</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.5276001480497534</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.3058890976383083</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.01346611595666875</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.3055838619766432</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.3125081337600467</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.3884724182046528</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.4538121814179251</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.06399256485393</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.8929238983197669</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-0.2301886165795871</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.5455394619424824</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.721197713339349</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>-0.2547706416162911</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.06625234717467046</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.3935669938082436</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.7350194938623917</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.04693653320541811</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>-0.1407954618922306</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.1783752693867605</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.5374927680547121</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.2192503366175268</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.2645171760796362</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.3536268586566052</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.1936033733859323</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.4562047349991167</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.3075548844882675</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.2730149003783122</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.3376161629920701</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.3555859811782915</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.2872870600403349</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.1693738369529669</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.1747417392309148</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.4592948408258887</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.5537584282110622</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.06006443921127431</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.03161459422690988</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.5745146330168793</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.5754399670892013</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.01835477477286966</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.1203178975302959</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.4799708453602524</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.525930195003258</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.8233970613418266</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.003286764266641</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.09923158759941528</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2185835286012149</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.7601641036878436</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.4602641569711478</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>-0.2959327124404231</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.1240989142003816</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.578686123664955</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.5696803256077999</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>-0.1903796770550969</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>-0.003126801142712754</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,17 +931,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.8836877072539128</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.07889923151154481</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.5428657972658425</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>0.1331216508194761</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.5005242550899385</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.1521750060871782</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>0.4106280776302746</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.2870827926022551</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.3441271177758944</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +969,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>0.04839975024422578</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3177760083238753</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.8010101187186375</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>-0.2317853230563278</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.03624246892257565</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.482526967694546</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>-0.02259420257834648</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.04381178758168468</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.54928680238148</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +1007,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>2.410154292247151</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.8144188799927359</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-0.01318089458360596</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>0.7177998537012773</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.196661486853994</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.3272573801657504</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>1.003599389764839</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.739334869125954</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>-0.02168713300582008</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,18 +1049,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.1960223324765158</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.5129229437101989</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.08286791035453801</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.3884192425228498</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.2823108128861879</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.3425093525211598</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.398356429301586</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1799522218790545</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.2437418607244087</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.4156920908383865</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.2701714812058492</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.2836326583708929</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1093,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.03685088509835216</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.2794297932644524</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2734428140801143</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.5198321747236017</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.1049523863248541</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.1855216194220429</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.4969498513527924</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.3247569916066185</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.1049114433037549</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.2718669450023458</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.3662691448542015</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.3855245609996514</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1137,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.4747931821862947</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.7759420491158204</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1966803535844043</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-0.1922585058019694</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.4915309518724162</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.5287115178664983</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>-0.2997101844129069</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.01177248438867269</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.4069890594937428</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.5743414630484747</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>-0.1334945934605701</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>-0.1523417195608381</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
